--- a/biology/Botanique/Forme_foliaire/Forme_foliaire.xlsx
+++ b/biology/Botanique/Forme_foliaire/Forme_foliaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forme foliaire, ou forme des feuilles, est une part de la morphologie végétale souvent utilisée dans la systématique ou classification des espèces. En effet, la forme des feuilles, qui comprend de nombreuses variantes, est souvent une des caractéristiques les plus visibles pouvant servir à identifier une espèce végétale. Leur forme, leur taille et leur surface (mesurée par l'indice foliaire), leur angle d'insertion, ainsi que leur distribution spatiale au sein de la couronne d'un arbre et sur les axes végétatifs (phyllotaxie) sont les déterminants structurels[1] de l'interception lumineuse et donc du rendement de la photosynthèse[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme foliaire, ou forme des feuilles, est une part de la morphologie végétale souvent utilisée dans la systématique ou classification des espèces. En effet, la forme des feuilles, qui comprend de nombreuses variantes, est souvent une des caractéristiques les plus visibles pouvant servir à identifier une espèce végétale. Leur forme, leur taille et leur surface (mesurée par l'indice foliaire), leur angle d'insertion, ainsi que leur distribution spatiale au sein de la couronne d'un arbre et sur les axes végétatifs (phyllotaxie) sont les déterminants structurels de l'interception lumineuse et donc du rendement de la photosynthèse,.
 Les feuilles peuvent être simples (un seul limbe foliaire) ou composées (c'est-à-dire composées de plusieurs limbes nommés folioles), à bordure entière ou plus ou moins échancrée, lisse ou porteuse de poils, d’épines, etc. La disposition des folioles (dans le cas des feuilles composées), la forme des limbes ainsi que l'aspect de leur bordure sont des caractéristiques qui participent à la forme foliaire, de même que la disposition des nervures.
 </t>
         </is>
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Différentes compositions
-Compositions pennées
-Autres types de composition
-Exemples
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Feuillage alterne du saule à trois étamines
 			Feuille bipennée de la fougère aigle
 			Feuille digitée du marronnier commun
@@ -557,11 +572,48 @@
           <t>Forme des feuilles (Foliorum forma)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le développement de la forme foliaire (en latin Foliorum forma) en relation avec l'environnement a été étudiée par le botaniste Thomas J. Givnish (en) qui propose des modèles mathématiques pour déduire l'investissement énergétique de la plante dans les supports de l'ensemble de son feuillage (tiges, pétioles et nervures) par rapport au gain apporté par le parenchyme assimilateur. Selon ces modèles, les plantes des sous-bois (milieu à faible niveau d'énergie, ce qui entraîne une faible vitesse de croissance des végétaux) ont une grande diversité de formes foliaires qui rentabilisent au mieux l'énergie investie dans le feuillage. Elles sont généralement plus larges et à nervation réticulée, avec une couche de feuillage unique, ce qui évite un recouvrement des feuilles (auto-ombrage). Les plantes des milieux ouverts ont des feuilles plus étroites à nervation parallèle, ou des limbes plus découpés, afin de réduire la transpiration par unité de surface foliaire et d'optimiser le comportement hydrique (potentiel hydrique foliaire). Elles présentent plusieurs couches de feuillage qui permettent de résister à un ensoleillement trop fort par l'auto-ombrage[4]. Ces études sont confirmées par l'influence de la forme du limbe (ratio longueur/largeur) des feuilles simples[5] et des feuilles composées[6] sur l'interception lumineuse. Selon le principe de l'allocation des ressources, les relations entre différents traits foliaires (forme, nervation, longueur du pétiole) reflètent l'existence de compromis évolutifs associés à des contraintes structurales et fonctionnelles des plantes en relation avec leur écologie[7].
-Différentes formes
-Exemples
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le développement de la forme foliaire (en latin Foliorum forma) en relation avec l'environnement a été étudiée par le botaniste Thomas J. Givnish (en) qui propose des modèles mathématiques pour déduire l'investissement énergétique de la plante dans les supports de l'ensemble de son feuillage (tiges, pétioles et nervures) par rapport au gain apporté par le parenchyme assimilateur. Selon ces modèles, les plantes des sous-bois (milieu à faible niveau d'énergie, ce qui entraîne une faible vitesse de croissance des végétaux) ont une grande diversité de formes foliaires qui rentabilisent au mieux l'énergie investie dans le feuillage. Elles sont généralement plus larges et à nervation réticulée, avec une couche de feuillage unique, ce qui évite un recouvrement des feuilles (auto-ombrage). Les plantes des milieux ouverts ont des feuilles plus étroites à nervation parallèle, ou des limbes plus découpés, afin de réduire la transpiration par unité de surface foliaire et d'optimiser le comportement hydrique (potentiel hydrique foliaire). Elles présentent plusieurs couches de feuillage qui permettent de résister à un ensoleillement trop fort par l'auto-ombrage. Ces études sont confirmées par l'influence de la forme du limbe (ratio longueur/largeur) des feuilles simples et des feuilles composées sur l'interception lumineuse. Selon le principe de l'allocation des ressources, les relations entre différents traits foliaires (forme, nervation, longueur du pétiole) reflètent l'existence de compromis évolutifs associés à des contraintes structurales et fonctionnelles des plantes en relation avec leur écologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forme_foliaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forme_foliaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Forme des feuilles (Foliorum forma)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Feuilles aciculaires de l'épicéa commun
 			Feuille acuminée du figuier des pagodes
 			Feuille cordée de Lunaria rediviva
@@ -601,34 +653,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Forme_foliaire</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Forme_foliaire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Bord des feuilles (Foliorum margo)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Différentes formes
-Exemples
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Bord cilié d'une foliole de vesce commune
 			Bord crénelé du peuplier à grandes dents
 			Bord denté en scie d'une feuille de grande ortie
@@ -644,34 +701,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Forme_foliaire</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Forme_foliaire</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Nervure (Nervus)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Différentes formes
-Exemples
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Nervure arquée d'une feuille de hosta
 			Nervure dichotome d'une feuille de Ginkgo biloba
 			Nervure palmée d'une feuille de lierre grimpant
